--- a/Jupyter Notebooks/CDP_Neighbors_Detail.xlsx
+++ b/Jupyter Notebooks/CDP_Neighbors_Detail.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://muellergroup-my.sharepoint.com/personal/christopher_davies1_muller_co_uk/Documents/Documents/Projects/Network-Programmability/Jupyter Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_5B84ECC0066990CEEB3B98154B5DCE3A374FA72E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3385D133-349A-4022-8C23-B4E327982F29}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_13984FCA066990CEEB3B98154B5DCE3A374FCB85" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BDFDCD83-1339-4DB9-B103-683856E5E35B}"/>
   <bookViews>
-    <workbookView xWindow="-26955" yWindow="660" windowWidth="25875" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDP Neighbors Detail" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CDP Neighbors Detail'!$A$1:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CDP Neighbors Detail'!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="111">
   <si>
     <t>LOCAL_HOST</t>
   </si>
@@ -49,298 +49,298 @@
     <t>CAPABILITIES</t>
   </si>
   <si>
-    <t>gb-brs1-001asw001</t>
-  </si>
-  <si>
-    <t>FastEthernet0/24</t>
-  </si>
-  <si>
-    <t>gb-brs1-001csw001.cns.muellergroup.com</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/0/1</t>
-  </si>
-  <si>
-    <t>172.20.16.1</t>
-  </si>
-  <si>
-    <t>cisco WS-C3850-24T</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software [Denali], Catalyst L3 Switch Software (CAT3K_CAA-UNIVERSALK9-M), Version 16.3.5b, RELEASE SOFTWARE (fc1)</t>
+    <t>GB-CAY2-001ASW001</t>
+  </si>
+  <si>
+    <t>GigabitEthernet1/0/50</t>
+  </si>
+  <si>
+    <t>GB-CAY2-001CSW001.cns.muellergroup.com</t>
+  </si>
+  <si>
+    <t>TenGigabitEthernet2/0/48</t>
+  </si>
+  <si>
+    <t>10.145.61.1</t>
+  </si>
+  <si>
+    <t>cisco C9300-48UXM</t>
+  </si>
+  <si>
+    <t>Cisco IOS Software [Gibraltar], Catalyst L3 Switch Software (CAT9K_IOSXE), Version 16.12.4, RELEASE SOFTWARE (fc5)</t>
   </si>
   <si>
     <t>Router Switch IGMP</t>
   </si>
   <si>
-    <t>GigabitEthernet0/2</t>
-  </si>
-  <si>
-    <t>gb-brs1-001asw003.cns.muellergroup.com</t>
-  </si>
-  <si>
-    <t>172.106.32.100</t>
-  </si>
-  <si>
-    <t>cisco WS-C3560V2-24PS</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software, C3560 Software (C3560-IPBASEK9-M), Version 12.2(58)SE2, RELEASE SOFTWARE (fc1)</t>
+    <t>GigabitEthernet1/0/49</t>
+  </si>
+  <si>
+    <t>TenGigabitEthernet1/0/48</t>
+  </si>
+  <si>
+    <t>GB-CAY2-001CSW001</t>
+  </si>
+  <si>
+    <t>GB-CAY2-001ASW001.cns.muellergroup.com</t>
+  </si>
+  <si>
+    <t>10.145.61.10</t>
+  </si>
+  <si>
+    <t>cisco WS-C2960X-48FPS-L</t>
+  </si>
+  <si>
+    <t>Cisco IOS Software, C2960X Software (C2960X-UNIVERSALK9-M), Version 15.2(2)E5, RELEASE SOFTWARE (fc2)</t>
+  </si>
+  <si>
+    <t>Switch IGMP</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet1/0/4</t>
+  </si>
+  <si>
+    <t>gb-cay2-001wap003</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0</t>
+  </si>
+  <si>
+    <t>10.145.62.21</t>
+  </si>
+  <si>
+    <t>cisco AIR-AP3802I-E-K9</t>
+  </si>
+  <si>
+    <t>Cisco AP Software, ap3g3-k9w8 Version: 8.5.151.0</t>
+  </si>
+  <si>
+    <t>Router Trans-Bridge</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet1/0/3</t>
+  </si>
+  <si>
+    <t>gb-cay2-001wap002</t>
+  </si>
+  <si>
+    <t>10.145.62.22</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet1/0/2</t>
+  </si>
+  <si>
+    <t>gb-cay2-001wap001</t>
+  </si>
+  <si>
+    <t>10.145.62.20</t>
+  </si>
+  <si>
+    <t>GigabitEthernet1/1/2</t>
+  </si>
+  <si>
+    <t>gb-cay2-001sdw101</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/0/1</t>
+  </si>
+  <si>
+    <t>10.250.13.18</t>
+  </si>
+  <si>
+    <t>cisco ISR4451-X/K9</t>
+  </si>
+  <si>
+    <t>Cisco IOS Software [Amsterdam], ISR Software (X86_64_LINUX_IOSD-UNIVERSALK9-M), Version 17.3.3, RELEASE SOFTWARE (fc7)</t>
+  </si>
+  <si>
+    <t>GigabitEthernet1/1/4</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/1/1</t>
+  </si>
+  <si>
+    <t>10.250.16.17</t>
+  </si>
+  <si>
+    <t>GigabitEthernet1/1/1</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/0/0</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet2/0/1</t>
+  </si>
+  <si>
+    <t>gb-cay2-001wap005</t>
+  </si>
+  <si>
+    <t>10.145.62.23</t>
+  </si>
+  <si>
+    <t>GigabitEthernet2/1/1</t>
+  </si>
+  <si>
+    <t>gb-cay2-001sdw102</t>
+  </si>
+  <si>
+    <t>10.250.16.21</t>
+  </si>
+  <si>
+    <t>GigabitEthernet2/1/2</t>
+  </si>
+  <si>
+    <t>10.250.13.22</t>
+  </si>
+  <si>
+    <t>GigabitEthernet2/1/4</t>
+  </si>
+  <si>
+    <t>62.172.66.140</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet2/0/2</t>
+  </si>
+  <si>
+    <t>gb-cay2-001wap004</t>
+  </si>
+  <si>
+    <t>10.145.62.24</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet2/0/18</t>
+  </si>
+  <si>
+    <t>SEPB4A8B94C8E59</t>
+  </si>
+  <si>
+    <t>Port 1</t>
+  </si>
+  <si>
+    <t>10.145.17.21</t>
+  </si>
+  <si>
+    <t>Cisco IP Phone 7841</t>
+  </si>
+  <si>
+    <t>sip78xx.12-7-1-0001-393.loads</t>
+  </si>
+  <si>
+    <t>Host Phone Two-port Mac Relay</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet2/0/17</t>
+  </si>
+  <si>
+    <t>SEP08CCA7F6C506</t>
+  </si>
+  <si>
+    <t>10.145.17.28</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet1/0/20</t>
+  </si>
+  <si>
+    <t>SEP7CAD4FF6A6B8</t>
+  </si>
+  <si>
+    <t>10.145.17.30</t>
+  </si>
+  <si>
+    <t>Cisco IP Phone 8832</t>
+  </si>
+  <si>
+    <t>sip8832.12-5-1-16.loads</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet1/0/13</t>
+  </si>
+  <si>
+    <t>SEP501CB076D851</t>
+  </si>
+  <si>
+    <t>10.145.17.22</t>
+  </si>
+  <si>
+    <t>sip78xx.11-5-1-18.loads</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet1/0/19</t>
+  </si>
+  <si>
+    <t>SEP08CCA7F6BDD6</t>
+  </si>
+  <si>
+    <t>10.145.17.24</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet2/0/16</t>
+  </si>
+  <si>
+    <t>SEP40F07825F529</t>
+  </si>
+  <si>
+    <t>10.145.17.27</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet1/0/12</t>
+  </si>
+  <si>
+    <t>SEP501CB076D84B</t>
+  </si>
+  <si>
+    <t>10.145.17.208</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet2/0/20</t>
+  </si>
+  <si>
+    <t>SEP40F07825F5DA</t>
+  </si>
+  <si>
+    <t>10.145.17.23</t>
+  </si>
+  <si>
+    <t>sip8832.12-7-1-0001-403.loads</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet2/0/14</t>
+  </si>
+  <si>
+    <t>SEP08CCA7F6BC31</t>
+  </si>
+  <si>
+    <t>10.145.17.20</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet2/0/11</t>
+  </si>
+  <si>
+    <t>SEP40F07825F574</t>
+  </si>
+  <si>
+    <t>10.145.17.25</t>
+  </si>
+  <si>
+    <t>TwoGigabitEthernet2/0/13</t>
+  </si>
+  <si>
+    <t>SEP40F07825F598</t>
+  </si>
+  <si>
+    <t>10.145.17.29</t>
+  </si>
+  <si>
+    <t>GigabitEthernet0/0/2</t>
+  </si>
+  <si>
+    <t>gb-cay2-001swi201.cns.muellergroup.com</t>
   </si>
   <si>
     <t>GigabitEthernet0/1</t>
   </si>
   <si>
-    <t>gb-brs1-001asw002.cns.muellergroup.com</t>
-  </si>
-  <si>
-    <t>172.106.32.98</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software, C3560 Software (C3560-IPSERVICESK9-M), Version 12.2(55)SE8, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>FastEthernet0/13</t>
-  </si>
-  <si>
-    <t>SEP007686EDD192</t>
-  </si>
-  <si>
-    <t>Port 1</t>
-  </si>
-  <si>
-    <t>172.16.16.90</t>
-  </si>
-  <si>
-    <t>Cisco IP Phone 7811</t>
-  </si>
-  <si>
-    <t>sip78xx.12-7-1-0001-393.loads</t>
-  </si>
-  <si>
-    <t>Host Phone Two-port Mac Relay</t>
-  </si>
-  <si>
-    <t>gb-brs1-001csw001</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/0/2</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/0/23</t>
-  </si>
-  <si>
-    <t>gb-brs1-001vgw001.cns.muellergroup.com</t>
-  </si>
-  <si>
-    <t>GigabitEthernet0/0</t>
-  </si>
-  <si>
-    <t>10.250.3.145</t>
-  </si>
-  <si>
-    <t>Cisco CISCO2921/K9</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software, C2900 Software (C2900-UNIVERSALK9-M), Version 15.2(4)M6a, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>gb-brs1-001asw001.cns.muellergroup.com</t>
-  </si>
-  <si>
-    <t>172.106.32.97</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/0/24</t>
-  </si>
-  <si>
-    <t>gb-brs1-001vgw002.cns.muellergroup.com</t>
-  </si>
-  <si>
-    <t>10.250.3.153</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/0/20</t>
-  </si>
-  <si>
-    <t>gb-brs1-001sdw102</t>
-  </si>
-  <si>
-    <t>GigabitEthernet0/0/1</t>
-  </si>
-  <si>
-    <t>10.250.12.110</t>
-  </si>
-  <si>
-    <t>cisco ISR4431/K9</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software [Amsterdam], ISR Software (X86_64_LINUX_IOSD-UNIVERSALK9-M), Version 17.3.3, RELEASE SOFTWARE (fc7)</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/0/19</t>
-  </si>
-  <si>
-    <t>GigabitEthernet0/0/0</t>
-  </si>
-  <si>
-    <t>10.250.15.109</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/0/22</t>
-  </si>
-  <si>
-    <t>gb-brs1-001sdw101</t>
-  </si>
-  <si>
-    <t>10.250.12.106</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/0/21</t>
-  </si>
-  <si>
-    <t>10.250.15.105</t>
-  </si>
-  <si>
-    <t>gb-brs1-001asw003</t>
-  </si>
-  <si>
-    <t>gb-brs1-001asw004.cns.muellergroup.com</t>
-  </si>
-  <si>
-    <t>172.20.16.13</t>
-  </si>
-  <si>
-    <t>cisco WS-C3750V2-24PS</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software, C3750 Software (C3750-IPBASEK9-M), Version 12.2(55)SE10, RELEASE SOFTWARE (fc2)</t>
-  </si>
-  <si>
-    <t>Switch IGMP</t>
-  </si>
-  <si>
-    <t>FastEthernet0/23</t>
-  </si>
-  <si>
-    <t>FastEthernet0/3</t>
-  </si>
-  <si>
-    <t>BR-AP1242-Training</t>
-  </si>
-  <si>
-    <t>FastEthernet0.4</t>
-  </si>
-  <si>
-    <t>172.20.185.19</t>
-  </si>
-  <si>
-    <t>cisco AIR-LAP1242G-E-K9</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software, C1240 Software (C1240-K9W8-M), Version 12.4(25e)JAP5, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>Trans-Bridge</t>
-  </si>
-  <si>
-    <t>FastEthernet0/4</t>
-  </si>
-  <si>
-    <t>BR-AP1242-Supervisor</t>
-  </si>
-  <si>
-    <t>172.20.185.17</t>
-  </si>
-  <si>
-    <t>FastEthernet0/14</t>
-  </si>
-  <si>
-    <t>SEP0015F9F8AF70</t>
-  </si>
-  <si>
-    <t>172.16.16.70</t>
-  </si>
-  <si>
-    <t>Cisco IP Phone 7960</t>
-  </si>
-  <si>
-    <t>P0030801SR02</t>
-  </si>
-  <si>
-    <t>FastEthernet0/2</t>
-  </si>
-  <si>
-    <t>BR-AP1242-Sales</t>
-  </si>
-  <si>
-    <t>172.20.185.20</t>
-  </si>
-  <si>
-    <t>FastEthernet0/1</t>
-  </si>
-  <si>
-    <t>BR-AP1242-Meeting</t>
-  </si>
-  <si>
-    <t>172.20.185.15</t>
-  </si>
-  <si>
-    <t>FastEthernet0/17</t>
-  </si>
-  <si>
-    <t>BR-AP1242-Chill1</t>
-  </si>
-  <si>
-    <t>172.20.185.21</t>
-  </si>
-  <si>
-    <t>cisco AIR-LAP1242AG-E-K9</t>
-  </si>
-  <si>
-    <t>gb-brs1-001asw002</t>
-  </si>
-  <si>
-    <t>gb-brs1-002asw001.cns.muellergroup.com</t>
-  </si>
-  <si>
-    <t>172.106.32.99</t>
-  </si>
-  <si>
-    <t>cisco WS-C2960-48PST-L</t>
-  </si>
-  <si>
-    <t>Cisco IOS Software, C2960 Software (C2960-LANBASEK9-M), Version 12.2(55)SE7, RELEASE SOFTWARE (fc1)</t>
-  </si>
-  <si>
-    <t>SEP501CB076DE76</t>
-  </si>
-  <si>
-    <t>172.16.16.103</t>
-  </si>
-  <si>
-    <t>Cisco IP Phone 7841</t>
-  </si>
-  <si>
-    <t>FastEthernet0/15</t>
-  </si>
-  <si>
-    <t>SEP70D37947272E</t>
-  </si>
-  <si>
-    <t>172.16.16.93</t>
-  </si>
-  <si>
-    <t>10.250.15.110</t>
-  </si>
-  <si>
-    <t>GigabitEthernet0/0/2</t>
-  </si>
-  <si>
-    <t>gb-brs1-001swi201.cns.muellergroup.com</t>
-  </si>
-  <si>
-    <t>193.117.220.202</t>
+    <t>62.172.66.138</t>
   </si>
   <si>
     <t>cisco WS-C3560CG-8PC-S</t>
@@ -349,79 +349,13 @@
     <t>Cisco IOS Software, C3560C Software (C3560c405ex-UNIVERSALK9-M), Version 15.0(2)SE5, RELEASE SOFTWARE (fc1)</t>
   </si>
   <si>
-    <t>10.250.15.106</t>
+    <t>10.250.16.18</t>
   </si>
   <si>
     <t>GigabitEthernet0/3</t>
   </si>
   <si>
-    <t>gb-brs1-001asw004</t>
-  </si>
-  <si>
-    <t>FastEthernet1/0/12</t>
-  </si>
-  <si>
-    <t>SEP0023EBC71419</t>
-  </si>
-  <si>
-    <t>172.16.16.67</t>
-  </si>
-  <si>
-    <t>Cisco IP Phone 7942</t>
-  </si>
-  <si>
-    <t>SCCP42.9-4-2SR1-1S</t>
-  </si>
-  <si>
-    <t>FastEthernet1/0/4</t>
-  </si>
-  <si>
-    <t>BR-AP1242-Sup2</t>
-  </si>
-  <si>
-    <t>172.20.185.16</t>
-  </si>
-  <si>
-    <t>FastEthernet1/0/2</t>
-  </si>
-  <si>
-    <t>BR-AP1242-Chill2</t>
-  </si>
-  <si>
-    <t>172.20.185.22</t>
-  </si>
-  <si>
-    <t>FastEthernet1/0/3</t>
-  </si>
-  <si>
-    <t>BR-AP1242-Chill3</t>
-  </si>
-  <si>
-    <t>172.20.185.23</t>
-  </si>
-  <si>
-    <t>gb-brs1-002asw001</t>
-  </si>
-  <si>
-    <t>BR-AP1242-Garage</t>
-  </si>
-  <si>
-    <t>172.20.185.18</t>
-  </si>
-  <si>
-    <t>SEP0021D8B8C723</t>
-  </si>
-  <si>
-    <t>172.16.16.68</t>
-  </si>
-  <si>
-    <t>Cisco IP Phone 7940</t>
-  </si>
-  <si>
-    <t>SEP001200B49233</t>
-  </si>
-  <si>
-    <t>172.16.16.69</t>
+    <t>10.250.16.22</t>
   </si>
 </sst>
 </file>
@@ -761,20 +695,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="1" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="120" customWidth="1"/>
-    <col min="8" max="8" width="42" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -805,545 +738,545 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
         <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
         <v>60</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -1351,25 +1284,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -1377,25 +1310,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -1403,25 +1336,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -1429,25 +1362,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -1455,25 +1388,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -1481,25 +1414,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -1507,25 +1440,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -1533,25 +1466,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -1559,103 +1492,103 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -1663,244 +1596,39 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" t="s">
-        <v>95</v>
-      </c>
-      <c r="H36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" t="s">
-        <v>115</v>
-      </c>
-      <c r="H40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H43" xr:uid="{F86BD00C-32FB-4CD0-BA0C-003897207BFF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
-      <sortCondition ref="C1:C43"/>
+  <autoFilter ref="A1:H35" xr:uid="{A4AF1E45-A517-46BD-9084-1B6F883C070F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H35">
+      <sortCondition ref="A1:A35"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H35">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>